--- a/scripts/reports/My_ks3.xlsx
+++ b/scripts/reports/My_ks3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\report-generator\scripts\templates\ks3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{80055856-D8AA-42AF-B585-3073B29E7D09}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7F230575-D08E-494B-ACC4-2CC64EE559F7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
     <workbookView windowHeight="13176" windowWidth="22320" xWindow="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -27,71 +27,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Пользователь</author>
-  </authors>
-  <commentList>
-    <comment ref="BB20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-номер и дата равняется номеру и дате из КС-2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Пользователь:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Итоги по разделам из КС-2
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Унифицированная форма № КС-3
 Утверждена постановлением Госкомстата России от 11.11.99 № 100</t>
@@ -154,9 +91,6 @@
     <t>дата</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>Вид операции</t>
   </si>
   <si>
@@ -176,12 +110,6 @@
   </si>
   <si>
     <t>СПРАВКА</t>
-  </si>
-  <si>
-    <t>16.12.2019</t>
-  </si>
-  <si>
-    <t>17.10.2019</t>
   </si>
   <si>
     <t>О СТОИМОСТИ ВЫПОЛНЕННЫХ РАБОТ И ЗАТРАТ</t>
@@ -253,9 +181,6 @@
     <t>Старцев Александр Игоревич</t>
   </si>
   <si>
-    <t>х на 20/120 округлить до 2 знаком</t>
-  </si>
-  <si>
     <t>${consumerOrganization}</t>
   </si>
   <si>
@@ -280,16 +205,25 @@
     <t>${section1_sumPrice}</t>
   </si>
   <si>
-    <t>gggg</t>
-  </si>
-  <si>
-    <t>ggggg</t>
+    <t>${contractName}</t>
+  </si>
+  <si>
+    <t>${tax}</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
   <si>
     <t>Раздел 1. Система  автоматической пожарной сигнализации и оповещения и управления эвакуацией людей при пожаре (АПС и СОУЭ)</t>
   </si>
   <si>
-    <t>Раздел TST</t>
+    <t>Раздел</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -334,23 +268,21 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -672,13 +604,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -695,25 +627,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -726,33 +658,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,6 +712,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -801,109 +745,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1209,11 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ZI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="DH27" sqref="DH27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1231,157 +1172,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BE1" s="79" t="s">
+      <c r="BE1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
-      <c r="BR1" s="79"/>
-      <c r="BS1" s="79"/>
-      <c r="BT1" s="79"/>
-      <c r="BU1" s="79"/>
-      <c r="BV1" s="79"/>
-      <c r="BW1" s="79"/>
-      <c r="BX1" s="79"/>
-      <c r="BY1" s="79"/>
-      <c r="BZ1" s="79"/>
-      <c r="CA1" s="79"/>
-      <c r="CB1" s="79"/>
-      <c r="CC1" s="79"/>
-      <c r="CD1" s="79"/>
-      <c r="CE1" s="79"/>
-      <c r="CF1" s="79"/>
-      <c r="CG1" s="79"/>
-      <c r="CH1" s="79"/>
-      <c r="CI1" s="79"/>
-      <c r="CJ1" s="79"/>
-      <c r="CK1" s="79"/>
-      <c r="CL1" s="79"/>
-      <c r="CM1" s="79"/>
-      <c r="CN1" s="79"/>
-      <c r="CO1" s="79"/>
-      <c r="CP1" s="79"/>
-      <c r="CQ1" s="79"/>
-      <c r="CR1" s="79"/>
-      <c r="CS1" s="79"/>
-      <c r="CT1" s="79"/>
-      <c r="CU1" s="79"/>
-      <c r="CV1" s="79"/>
-      <c r="CW1" s="79"/>
-      <c r="CX1" s="79"/>
-      <c r="CY1" s="79"/>
-      <c r="CZ1" s="79"/>
-      <c r="DA1" s="79"/>
-      <c r="DB1" s="79"/>
-      <c r="DC1" s="79"/>
-      <c r="DD1" s="79"/>
-      <c r="DE1" s="79"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
+      <c r="BQ1" s="72"/>
+      <c r="BR1" s="72"/>
+      <c r="BS1" s="72"/>
+      <c r="BT1" s="72"/>
+      <c r="BU1" s="72"/>
+      <c r="BV1" s="72"/>
+      <c r="BW1" s="72"/>
+      <c r="BX1" s="72"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="72"/>
+      <c r="CD1" s="72"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
+      <c r="CJ1" s="72"/>
+      <c r="CK1" s="72"/>
+      <c r="CL1" s="72"/>
+      <c r="CM1" s="72"/>
+      <c r="CN1" s="72"/>
+      <c r="CO1" s="72"/>
+      <c r="CP1" s="72"/>
+      <c r="CQ1" s="72"/>
+      <c r="CR1" s="72"/>
+      <c r="CS1" s="72"/>
+      <c r="CT1" s="72"/>
+      <c r="CU1" s="72"/>
+      <c r="CV1" s="72"/>
+      <c r="CW1" s="72"/>
+      <c r="CX1" s="72"/>
+      <c r="CY1" s="72"/>
+      <c r="CZ1" s="72"/>
+      <c r="DA1" s="72"/>
+      <c r="DB1" s="72"/>
+      <c r="DC1" s="72"/>
+      <c r="DD1" s="72"/>
+      <c r="DE1" s="72"/>
     </row>
     <row r="2" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="79"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
-      <c r="BR2" s="79"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="79"/>
-      <c r="BU2" s="79"/>
-      <c r="BV2" s="79"/>
-      <c r="BW2" s="79"/>
-      <c r="BX2" s="79"/>
-      <c r="BY2" s="79"/>
-      <c r="BZ2" s="79"/>
-      <c r="CA2" s="79"/>
-      <c r="CB2" s="79"/>
-      <c r="CC2" s="79"/>
-      <c r="CD2" s="79"/>
-      <c r="CE2" s="79"/>
-      <c r="CF2" s="79"/>
-      <c r="CG2" s="79"/>
-      <c r="CH2" s="79"/>
-      <c r="CI2" s="79"/>
-      <c r="CJ2" s="79"/>
-      <c r="CK2" s="79"/>
-      <c r="CL2" s="79"/>
-      <c r="CM2" s="79"/>
-      <c r="CN2" s="79"/>
-      <c r="CO2" s="79"/>
-      <c r="CP2" s="79"/>
-      <c r="CQ2" s="79"/>
-      <c r="CR2" s="79"/>
-      <c r="CS2" s="79"/>
-      <c r="CT2" s="79"/>
-      <c r="CU2" s="79"/>
-      <c r="CV2" s="79"/>
-      <c r="CW2" s="79"/>
-      <c r="CX2" s="79"/>
-      <c r="CY2" s="79"/>
-      <c r="CZ2" s="79"/>
-      <c r="DA2" s="79"/>
-      <c r="DB2" s="79"/>
-      <c r="DC2" s="79"/>
-      <c r="DD2" s="79"/>
-      <c r="DE2" s="79"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+      <c r="BI2" s="72"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="72"/>
+      <c r="BU2" s="72"/>
+      <c r="BV2" s="72"/>
+      <c r="BW2" s="72"/>
+      <c r="BX2" s="72"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="72"/>
+      <c r="CB2" s="72"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="72"/>
+      <c r="CE2" s="72"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="72"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="72"/>
+      <c r="CK2" s="72"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="72"/>
+      <c r="CQ2" s="72"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="72"/>
+      <c r="CT2" s="72"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="72"/>
+      <c r="CW2" s="72"/>
+      <c r="CX2" s="72"/>
+      <c r="CY2" s="72"/>
+      <c r="CZ2" s="72"/>
+      <c r="DA2" s="72"/>
+      <c r="DB2" s="72"/>
+      <c r="DC2" s="72"/>
+      <c r="DD2" s="72"/>
+      <c r="DE2" s="72"/>
     </row>
     <row r="3" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="CQ3" s="80" t="s">
+      <c r="CQ3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="CR3" s="51"/>
-      <c r="CS3" s="51"/>
-      <c r="CT3" s="51"/>
-      <c r="CU3" s="51"/>
-      <c r="CV3" s="51"/>
-      <c r="CW3" s="51"/>
-      <c r="CX3" s="51"/>
-      <c r="CY3" s="51"/>
-      <c r="CZ3" s="51"/>
-      <c r="DA3" s="51"/>
-      <c r="DB3" s="51"/>
-      <c r="DC3" s="51"/>
-      <c r="DD3" s="51"/>
-      <c r="DE3" s="81"/>
+      <c r="CR3" s="46"/>
+      <c r="CS3" s="46"/>
+      <c r="CT3" s="46"/>
+      <c r="CU3" s="46"/>
+      <c r="CV3" s="46"/>
+      <c r="CW3" s="46"/>
+      <c r="CX3" s="46"/>
+      <c r="CY3" s="46"/>
+      <c r="CZ3" s="46"/>
+      <c r="DA3" s="46"/>
+      <c r="DB3" s="46"/>
+      <c r="DC3" s="46"/>
+      <c r="DD3" s="46"/>
+      <c r="DE3" s="74"/>
     </row>
     <row r="4" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BZ4" s="13" t="s">
+      <c r="BZ4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="CA4" s="13"/>
-      <c r="CB4" s="13"/>
-      <c r="CC4" s="13"/>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="13"/>
-      <c r="CG4" s="13"/>
-      <c r="CH4" s="13"/>
-      <c r="CI4" s="13"/>
-      <c r="CJ4" s="13"/>
-      <c r="CK4" s="13"/>
-      <c r="CL4" s="13"/>
-      <c r="CM4" s="13"/>
-      <c r="CN4" s="13"/>
-      <c r="CO4" s="13"/>
-      <c r="CP4" s="13"/>
-      <c r="CQ4" s="82" t="s">
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
+      <c r="CQ4" s="75" t="s">
         <v>3</v>
       </c>
       <c r="CR4" s="8"/>
@@ -1397,122 +1338,122 @@
       <c r="DB4" s="8"/>
       <c r="DC4" s="8"/>
       <c r="DD4" s="8"/>
-      <c r="DE4" s="83"/>
+      <c r="DE4" s="76"/>
     </row>
     <row r="5" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
-      <c r="AO5" s="73"/>
-      <c r="AP5" s="73"/>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="73"/>
-      <c r="AS5" s="73"/>
-      <c r="AT5" s="73"/>
-      <c r="AU5" s="73"/>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="73"/>
-      <c r="AX5" s="73"/>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="73"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="73"/>
-      <c r="BD5" s="73"/>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="73"/>
-      <c r="BJ5" s="73"/>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="73"/>
-      <c r="BM5" s="73"/>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="73"/>
-      <c r="BP5" s="73"/>
-      <c r="BQ5" s="73"/>
-      <c r="BR5" s="73"/>
-      <c r="BS5" s="73"/>
-      <c r="BT5" s="73"/>
-      <c r="BU5" s="73"/>
-      <c r="BV5" s="73"/>
-      <c r="BW5" s="73"/>
-      <c r="BX5" s="73"/>
-      <c r="BY5" s="73"/>
-      <c r="BZ5" s="73"/>
-      <c r="CA5" s="73"/>
-      <c r="CB5" s="73"/>
-      <c r="CC5" s="73"/>
-      <c r="CD5" s="73"/>
-      <c r="CE5" s="73"/>
-      <c r="CF5" s="73"/>
-      <c r="CG5" s="73"/>
-      <c r="CH5" s="74" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
+      <c r="AL5" s="79"/>
+      <c r="AM5" s="79"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="79"/>
+      <c r="AP5" s="79"/>
+      <c r="AQ5" s="79"/>
+      <c r="AR5" s="79"/>
+      <c r="AS5" s="79"/>
+      <c r="AT5" s="79"/>
+      <c r="AU5" s="79"/>
+      <c r="AV5" s="79"/>
+      <c r="AW5" s="79"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
+      <c r="BJ5" s="79"/>
+      <c r="BK5" s="79"/>
+      <c r="BL5" s="79"/>
+      <c r="BM5" s="79"/>
+      <c r="BN5" s="79"/>
+      <c r="BO5" s="79"/>
+      <c r="BP5" s="79"/>
+      <c r="BQ5" s="79"/>
+      <c r="BR5" s="79"/>
+      <c r="BS5" s="79"/>
+      <c r="BT5" s="79"/>
+      <c r="BU5" s="79"/>
+      <c r="BV5" s="79"/>
+      <c r="BW5" s="79"/>
+      <c r="BX5" s="79"/>
+      <c r="BY5" s="79"/>
+      <c r="BZ5" s="79"/>
+      <c r="CA5" s="79"/>
+      <c r="CB5" s="79"/>
+      <c r="CC5" s="79"/>
+      <c r="CD5" s="79"/>
+      <c r="CE5" s="79"/>
+      <c r="CF5" s="79"/>
+      <c r="CG5" s="79"/>
+      <c r="CH5" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="CI5" s="74"/>
-      <c r="CJ5" s="74"/>
-      <c r="CK5" s="74"/>
-      <c r="CL5" s="74"/>
-      <c r="CM5" s="74"/>
-      <c r="CN5" s="74"/>
-      <c r="CO5" s="74"/>
-      <c r="CP5" s="74"/>
-      <c r="CQ5" s="84"/>
-      <c r="CR5" s="69"/>
-      <c r="CS5" s="69"/>
-      <c r="CT5" s="69"/>
-      <c r="CU5" s="69"/>
-      <c r="CV5" s="69"/>
-      <c r="CW5" s="69"/>
-      <c r="CX5" s="69"/>
-      <c r="CY5" s="69"/>
-      <c r="CZ5" s="69"/>
-      <c r="DA5" s="69"/>
-      <c r="DB5" s="69"/>
-      <c r="DC5" s="69"/>
-      <c r="DD5" s="69"/>
-      <c r="DE5" s="70"/>
+      <c r="CI5" s="80"/>
+      <c r="CJ5" s="80"/>
+      <c r="CK5" s="80"/>
+      <c r="CL5" s="80"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="80"/>
+      <c r="CP5" s="80"/>
+      <c r="CQ5" s="81"/>
+      <c r="CR5" s="61"/>
+      <c r="CS5" s="61"/>
+      <c r="CT5" s="61"/>
+      <c r="CU5" s="61"/>
+      <c r="CV5" s="61"/>
+      <c r="CW5" s="61"/>
+      <c r="CX5" s="61"/>
+      <c r="CY5" s="61"/>
+      <c r="CZ5" s="61"/>
+      <c r="DA5" s="61"/>
+      <c r="DB5" s="61"/>
+      <c r="DC5" s="61"/>
+      <c r="DD5" s="61"/>
+      <c r="DE5" s="62"/>
       <c r="ZA5" s="1"/>
     </row>
     <row customHeight="1" ht="6.9" r="6" spans="1:682" x14ac:dyDescent="0.2">
@@ -1593,140 +1534,138 @@
       <c r="CE6" s="4"/>
       <c r="CF6" s="4"/>
       <c r="CG6" s="4"/>
-      <c r="CQ6" s="75">
-        <v>78512818</v>
-      </c>
-      <c r="CR6" s="76"/>
-      <c r="CS6" s="76"/>
-      <c r="CT6" s="76"/>
-      <c r="CU6" s="76"/>
-      <c r="CV6" s="76"/>
-      <c r="CW6" s="76"/>
-      <c r="CX6" s="76"/>
-      <c r="CY6" s="76"/>
-      <c r="CZ6" s="76"/>
-      <c r="DA6" s="76"/>
-      <c r="DB6" s="76"/>
-      <c r="DC6" s="76"/>
-      <c r="DD6" s="76"/>
-      <c r="DE6" s="77"/>
+      <c r="CQ6" s="84"/>
+      <c r="CR6" s="85"/>
+      <c r="CS6" s="85"/>
+      <c r="CT6" s="85"/>
+      <c r="CU6" s="85"/>
+      <c r="CV6" s="85"/>
+      <c r="CW6" s="85"/>
+      <c r="CX6" s="85"/>
+      <c r="CY6" s="85"/>
+      <c r="CZ6" s="85"/>
+      <c r="DA6" s="85"/>
+      <c r="DB6" s="85"/>
+      <c r="DC6" s="85"/>
+      <c r="DD6" s="85"/>
+      <c r="DE6" s="86"/>
     </row>
     <row ht="20.399999999999999" r="7" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="64"/>
-      <c r="BD7" s="64"/>
-      <c r="BE7" s="64"/>
-      <c r="BF7" s="64"/>
-      <c r="BG7" s="64"/>
-      <c r="BH7" s="64"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="64"/>
-      <c r="BO7" s="64"/>
-      <c r="BP7" s="64"/>
-      <c r="BQ7" s="64"/>
-      <c r="BR7" s="64"/>
-      <c r="BS7" s="64"/>
-      <c r="BT7" s="64"/>
-      <c r="BU7" s="64"/>
-      <c r="BV7" s="64"/>
-      <c r="BW7" s="64"/>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="64"/>
-      <c r="CB7" s="64"/>
-      <c r="CC7" s="64"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="74" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
+      <c r="BS7" s="83"/>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="83"/>
+      <c r="BV7" s="83"/>
+      <c r="BW7" s="83"/>
+      <c r="BX7" s="83"/>
+      <c r="BY7" s="83"/>
+      <c r="BZ7" s="83"/>
+      <c r="CA7" s="83"/>
+      <c r="CB7" s="83"/>
+      <c r="CC7" s="83"/>
+      <c r="CD7" s="83"/>
+      <c r="CE7" s="83"/>
+      <c r="CF7" s="83"/>
+      <c r="CG7" s="83"/>
+      <c r="CH7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="CI7" s="74"/>
-      <c r="CJ7" s="74"/>
-      <c r="CK7" s="74"/>
-      <c r="CL7" s="74"/>
-      <c r="CM7" s="74"/>
-      <c r="CN7" s="74"/>
-      <c r="CO7" s="74"/>
-      <c r="CP7" s="74"/>
-      <c r="CQ7" s="78"/>
-      <c r="CR7" s="55"/>
-      <c r="CS7" s="55"/>
-      <c r="CT7" s="55"/>
-      <c r="CU7" s="55"/>
-      <c r="CV7" s="55"/>
-      <c r="CW7" s="55"/>
-      <c r="CX7" s="55"/>
-      <c r="CY7" s="55"/>
-      <c r="CZ7" s="55"/>
-      <c r="DA7" s="55"/>
-      <c r="DB7" s="55"/>
-      <c r="DC7" s="55"/>
-      <c r="DD7" s="55"/>
-      <c r="DE7" s="56"/>
+      <c r="CI7" s="80"/>
+      <c r="CJ7" s="80"/>
+      <c r="CK7" s="80"/>
+      <c r="CL7" s="80"/>
+      <c r="CM7" s="80"/>
+      <c r="CN7" s="80"/>
+      <c r="CO7" s="80"/>
+      <c r="CP7" s="80"/>
+      <c r="CQ7" s="87"/>
+      <c r="CR7" s="88"/>
+      <c r="CS7" s="88"/>
+      <c r="CT7" s="88"/>
+      <c r="CU7" s="88"/>
+      <c r="CV7" s="88"/>
+      <c r="CW7" s="88"/>
+      <c r="CX7" s="88"/>
+      <c r="CY7" s="88"/>
+      <c r="CZ7" s="88"/>
+      <c r="DA7" s="88"/>
+      <c r="DB7" s="88"/>
+      <c r="DC7" s="88"/>
+      <c r="DD7" s="88"/>
+      <c r="DE7" s="89"/>
       <c r="ZB7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1796,140 +1735,140 @@
       <c r="CE8" s="4"/>
       <c r="CF8" s="4"/>
       <c r="CG8" s="4"/>
-      <c r="CQ8" s="65" t="s">
+      <c r="CQ8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="CR8" s="66"/>
-      <c r="CS8" s="66"/>
-      <c r="CT8" s="66"/>
-      <c r="CU8" s="66"/>
-      <c r="CV8" s="66"/>
-      <c r="CW8" s="66"/>
-      <c r="CX8" s="66"/>
-      <c r="CY8" s="66"/>
-      <c r="CZ8" s="66"/>
-      <c r="DA8" s="66"/>
-      <c r="DB8" s="66"/>
-      <c r="DC8" s="66"/>
-      <c r="DD8" s="66"/>
-      <c r="DE8" s="67"/>
+      <c r="CR8" s="58"/>
+      <c r="CS8" s="58"/>
+      <c r="CT8" s="58"/>
+      <c r="CU8" s="58"/>
+      <c r="CV8" s="58"/>
+      <c r="CW8" s="58"/>
+      <c r="CX8" s="58"/>
+      <c r="CY8" s="58"/>
+      <c r="CZ8" s="58"/>
+      <c r="DA8" s="58"/>
+      <c r="DB8" s="58"/>
+      <c r="DC8" s="58"/>
+      <c r="DD8" s="58"/>
+      <c r="DE8" s="59"/>
     </row>
     <row ht="20.399999999999999" r="9" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="72" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="73"/>
-      <c r="BM9" s="73"/>
-      <c r="BN9" s="73"/>
-      <c r="BO9" s="73"/>
-      <c r="BP9" s="73"/>
-      <c r="BQ9" s="73"/>
-      <c r="BR9" s="73"/>
-      <c r="BS9" s="73"/>
-      <c r="BT9" s="73"/>
-      <c r="BU9" s="73"/>
-      <c r="BV9" s="73"/>
-      <c r="BW9" s="73"/>
-      <c r="BX9" s="73"/>
-      <c r="BY9" s="73"/>
-      <c r="BZ9" s="73"/>
-      <c r="CA9" s="73"/>
-      <c r="CB9" s="73"/>
-      <c r="CC9" s="73"/>
-      <c r="CD9" s="73"/>
-      <c r="CE9" s="73"/>
-      <c r="CF9" s="73"/>
-      <c r="CG9" s="73"/>
-      <c r="CH9" s="74" t="s">
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="79"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="79"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="79"/>
+      <c r="BG9" s="79"/>
+      <c r="BH9" s="79"/>
+      <c r="BI9" s="79"/>
+      <c r="BJ9" s="79"/>
+      <c r="BK9" s="79"/>
+      <c r="BL9" s="79"/>
+      <c r="BM9" s="79"/>
+      <c r="BN9" s="79"/>
+      <c r="BO9" s="79"/>
+      <c r="BP9" s="79"/>
+      <c r="BQ9" s="79"/>
+      <c r="BR9" s="79"/>
+      <c r="BS9" s="79"/>
+      <c r="BT9" s="79"/>
+      <c r="BU9" s="79"/>
+      <c r="BV9" s="79"/>
+      <c r="BW9" s="79"/>
+      <c r="BX9" s="79"/>
+      <c r="BY9" s="79"/>
+      <c r="BZ9" s="79"/>
+      <c r="CA9" s="79"/>
+      <c r="CB9" s="79"/>
+      <c r="CC9" s="79"/>
+      <c r="CD9" s="79"/>
+      <c r="CE9" s="79"/>
+      <c r="CF9" s="79"/>
+      <c r="CG9" s="79"/>
+      <c r="CH9" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="CI9" s="74"/>
-      <c r="CJ9" s="74"/>
-      <c r="CK9" s="74"/>
-      <c r="CL9" s="74"/>
-      <c r="CM9" s="74"/>
-      <c r="CN9" s="74"/>
-      <c r="CO9" s="74"/>
-      <c r="CP9" s="74"/>
-      <c r="CQ9" s="68"/>
-      <c r="CR9" s="69"/>
-      <c r="CS9" s="69"/>
-      <c r="CT9" s="69"/>
-      <c r="CU9" s="69"/>
-      <c r="CV9" s="69"/>
-      <c r="CW9" s="69"/>
-      <c r="CX9" s="69"/>
-      <c r="CY9" s="69"/>
-      <c r="CZ9" s="69"/>
-      <c r="DA9" s="69"/>
-      <c r="DB9" s="69"/>
-      <c r="DC9" s="69"/>
-      <c r="DD9" s="69"/>
-      <c r="DE9" s="70"/>
+      <c r="CI9" s="80"/>
+      <c r="CJ9" s="80"/>
+      <c r="CK9" s="80"/>
+      <c r="CL9" s="80"/>
+      <c r="CM9" s="80"/>
+      <c r="CN9" s="80"/>
+      <c r="CO9" s="80"/>
+      <c r="CP9" s="80"/>
+      <c r="CQ9" s="60"/>
+      <c r="CR9" s="61"/>
+      <c r="CS9" s="61"/>
+      <c r="CT9" s="61"/>
+      <c r="CU9" s="61"/>
+      <c r="CV9" s="61"/>
+      <c r="CW9" s="61"/>
+      <c r="CX9" s="61"/>
+      <c r="CY9" s="61"/>
+      <c r="CZ9" s="61"/>
+      <c r="DA9" s="61"/>
+      <c r="DB9" s="61"/>
+      <c r="DC9" s="61"/>
+      <c r="DD9" s="61"/>
+      <c r="DE9" s="62"/>
       <c r="ZC9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1997,325 +1936,325 @@
       <c r="CE10" s="4"/>
       <c r="CF10" s="4"/>
       <c r="CG10" s="4"/>
-      <c r="CQ10" s="65"/>
-      <c r="CR10" s="66"/>
-      <c r="CS10" s="66"/>
-      <c r="CT10" s="66"/>
-      <c r="CU10" s="66"/>
-      <c r="CV10" s="66"/>
-      <c r="CW10" s="66"/>
-      <c r="CX10" s="66"/>
-      <c r="CY10" s="66"/>
-      <c r="CZ10" s="66"/>
-      <c r="DA10" s="66"/>
-      <c r="DB10" s="66"/>
-      <c r="DC10" s="66"/>
-      <c r="DD10" s="66"/>
-      <c r="DE10" s="67"/>
+      <c r="CQ10" s="57"/>
+      <c r="CR10" s="58"/>
+      <c r="CS10" s="58"/>
+      <c r="CT10" s="58"/>
+      <c r="CU10" s="58"/>
+      <c r="CV10" s="58"/>
+      <c r="CW10" s="58"/>
+      <c r="CX10" s="58"/>
+      <c r="CY10" s="58"/>
+      <c r="CZ10" s="58"/>
+      <c r="DA10" s="58"/>
+      <c r="DB10" s="58"/>
+      <c r="DC10" s="58"/>
+      <c r="DD10" s="58"/>
+      <c r="DE10" s="59"/>
     </row>
     <row r="11" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="64"/>
-      <c r="CL11" s="64"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="64"/>
-      <c r="CO11" s="64"/>
-      <c r="CP11" s="64"/>
-      <c r="CQ11" s="68"/>
-      <c r="CR11" s="69"/>
-      <c r="CS11" s="69"/>
-      <c r="CT11" s="69"/>
-      <c r="CU11" s="69"/>
-      <c r="CV11" s="69"/>
-      <c r="CW11" s="69"/>
-      <c r="CX11" s="69"/>
-      <c r="CY11" s="69"/>
-      <c r="CZ11" s="69"/>
-      <c r="DA11" s="69"/>
-      <c r="DB11" s="69"/>
-      <c r="DC11" s="69"/>
-      <c r="DD11" s="69"/>
-      <c r="DE11" s="70"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="83"/>
+      <c r="BC11" s="83"/>
+      <c r="BD11" s="83"/>
+      <c r="BE11" s="83"/>
+      <c r="BF11" s="83"/>
+      <c r="BG11" s="83"/>
+      <c r="BH11" s="83"/>
+      <c r="BI11" s="83"/>
+      <c r="BJ11" s="83"/>
+      <c r="BK11" s="83"/>
+      <c r="BL11" s="83"/>
+      <c r="BM11" s="83"/>
+      <c r="BN11" s="83"/>
+      <c r="BO11" s="83"/>
+      <c r="BP11" s="83"/>
+      <c r="BQ11" s="83"/>
+      <c r="BR11" s="83"/>
+      <c r="BS11" s="83"/>
+      <c r="BT11" s="83"/>
+      <c r="BU11" s="83"/>
+      <c r="BV11" s="83"/>
+      <c r="BW11" s="83"/>
+      <c r="BX11" s="83"/>
+      <c r="BY11" s="83"/>
+      <c r="BZ11" s="83"/>
+      <c r="CA11" s="83"/>
+      <c r="CB11" s="83"/>
+      <c r="CC11" s="83"/>
+      <c r="CD11" s="83"/>
+      <c r="CE11" s="83"/>
+      <c r="CF11" s="83"/>
+      <c r="CG11" s="83"/>
+      <c r="CH11" s="83"/>
+      <c r="CI11" s="83"/>
+      <c r="CJ11" s="83"/>
+      <c r="CK11" s="83"/>
+      <c r="CL11" s="83"/>
+      <c r="CM11" s="83"/>
+      <c r="CN11" s="83"/>
+      <c r="CO11" s="83"/>
+      <c r="CP11" s="83"/>
+      <c r="CQ11" s="60"/>
+      <c r="CR11" s="61"/>
+      <c r="CS11" s="61"/>
+      <c r="CT11" s="61"/>
+      <c r="CU11" s="61"/>
+      <c r="CV11" s="61"/>
+      <c r="CW11" s="61"/>
+      <c r="CX11" s="61"/>
+      <c r="CY11" s="61"/>
+      <c r="CZ11" s="61"/>
+      <c r="DA11" s="61"/>
+      <c r="DB11" s="61"/>
+      <c r="DC11" s="61"/>
+      <c r="DD11" s="61"/>
+      <c r="DE11" s="62"/>
       <c r="ZD11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="6.9" r="12" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="71"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="71"/>
-      <c r="BH12" s="13" t="s">
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="56"/>
+      <c r="BA12" s="56"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="56"/>
+      <c r="BH12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="13"/>
-      <c r="BQ12" s="13"/>
-      <c r="BR12" s="13"/>
-      <c r="BS12" s="13"/>
-      <c r="BT12" s="13"/>
-      <c r="BU12" s="13"/>
-      <c r="BV12" s="13"/>
-      <c r="BW12" s="13"/>
-      <c r="BX12" s="13"/>
-      <c r="BY12" s="13"/>
-      <c r="BZ12" s="13"/>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="13"/>
-      <c r="CC12" s="13"/>
-      <c r="CD12" s="13"/>
-      <c r="CE12" s="13"/>
-      <c r="CF12" s="13"/>
-      <c r="CG12" s="13"/>
-      <c r="CH12" s="13"/>
-      <c r="CI12" s="13"/>
-      <c r="CJ12" s="13"/>
-      <c r="CK12" s="13"/>
-      <c r="CL12" s="13"/>
-      <c r="CM12" s="13"/>
-      <c r="CN12" s="13"/>
-      <c r="CO12" s="13"/>
-      <c r="CP12" s="13"/>
-      <c r="CQ12" s="65"/>
-      <c r="CR12" s="66"/>
-      <c r="CS12" s="66"/>
-      <c r="CT12" s="66"/>
-      <c r="CU12" s="66"/>
-      <c r="CV12" s="66"/>
-      <c r="CW12" s="66"/>
-      <c r="CX12" s="66"/>
-      <c r="CY12" s="66"/>
-      <c r="CZ12" s="66"/>
-      <c r="DA12" s="66"/>
-      <c r="DB12" s="66"/>
-      <c r="DC12" s="66"/>
-      <c r="DD12" s="66"/>
-      <c r="DE12" s="67"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10"/>
+      <c r="BL12" s="10"/>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10"/>
+      <c r="BR12" s="10"/>
+      <c r="BS12" s="10"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="10"/>
+      <c r="BZ12" s="10"/>
+      <c r="CA12" s="10"/>
+      <c r="CB12" s="10"/>
+      <c r="CC12" s="10"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="10"/>
+      <c r="CF12" s="10"/>
+      <c r="CG12" s="10"/>
+      <c r="CH12" s="10"/>
+      <c r="CI12" s="10"/>
+      <c r="CJ12" s="10"/>
+      <c r="CK12" s="10"/>
+      <c r="CL12" s="10"/>
+      <c r="CM12" s="10"/>
+      <c r="CN12" s="10"/>
+      <c r="CO12" s="10"/>
+      <c r="CP12" s="10"/>
+      <c r="CQ12" s="57"/>
+      <c r="CR12" s="58"/>
+      <c r="CS12" s="58"/>
+      <c r="CT12" s="58"/>
+      <c r="CU12" s="58"/>
+      <c r="CV12" s="58"/>
+      <c r="CW12" s="58"/>
+      <c r="CX12" s="58"/>
+      <c r="CY12" s="58"/>
+      <c r="CZ12" s="58"/>
+      <c r="DA12" s="58"/>
+      <c r="DB12" s="58"/>
+      <c r="DC12" s="58"/>
+      <c r="DD12" s="58"/>
+      <c r="DE12" s="59"/>
     </row>
     <row customHeight="1" ht="6" r="13" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
-      <c r="BL13" s="13"/>
-      <c r="BM13" s="13"/>
-      <c r="BN13" s="13"/>
-      <c r="BO13" s="13"/>
-      <c r="BP13" s="13"/>
-      <c r="BQ13" s="13"/>
-      <c r="BR13" s="13"/>
-      <c r="BS13" s="13"/>
-      <c r="BT13" s="13"/>
-      <c r="BU13" s="13"/>
-      <c r="BV13" s="13"/>
-      <c r="BW13" s="13"/>
-      <c r="BX13" s="13"/>
-      <c r="BY13" s="13"/>
-      <c r="BZ13" s="13"/>
-      <c r="CA13" s="13"/>
-      <c r="CB13" s="13"/>
-      <c r="CC13" s="13"/>
-      <c r="CD13" s="13"/>
-      <c r="CE13" s="13"/>
-      <c r="CF13" s="13"/>
-      <c r="CG13" s="13"/>
-      <c r="CH13" s="13"/>
-      <c r="CI13" s="13"/>
-      <c r="CJ13" s="13"/>
-      <c r="CK13" s="13"/>
-      <c r="CL13" s="13"/>
-      <c r="CM13" s="13"/>
-      <c r="CN13" s="13"/>
-      <c r="CO13" s="13"/>
-      <c r="CP13" s="13"/>
-      <c r="CQ13" s="68"/>
-      <c r="CR13" s="69"/>
-      <c r="CS13" s="69"/>
-      <c r="CT13" s="69"/>
-      <c r="CU13" s="69"/>
-      <c r="CV13" s="69"/>
-      <c r="CW13" s="69"/>
-      <c r="CX13" s="69"/>
-      <c r="CY13" s="69"/>
-      <c r="CZ13" s="69"/>
-      <c r="DA13" s="69"/>
-      <c r="DB13" s="69"/>
-      <c r="DC13" s="69"/>
-      <c r="DD13" s="69"/>
-      <c r="DE13" s="70"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10"/>
+      <c r="BL13" s="10"/>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10"/>
+      <c r="BR13" s="10"/>
+      <c r="BS13" s="10"/>
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="10"/>
+      <c r="BZ13" s="10"/>
+      <c r="CA13" s="10"/>
+      <c r="CB13" s="10"/>
+      <c r="CC13" s="10"/>
+      <c r="CD13" s="10"/>
+      <c r="CE13" s="10"/>
+      <c r="CF13" s="10"/>
+      <c r="CG13" s="10"/>
+      <c r="CH13" s="10"/>
+      <c r="CI13" s="10"/>
+      <c r="CJ13" s="10"/>
+      <c r="CK13" s="10"/>
+      <c r="CL13" s="10"/>
+      <c r="CM13" s="10"/>
+      <c r="CN13" s="10"/>
+      <c r="CO13" s="10"/>
+      <c r="CP13" s="10"/>
+      <c r="CQ13" s="60"/>
+      <c r="CR13" s="61"/>
+      <c r="CS13" s="61"/>
+      <c r="CT13" s="61"/>
+      <c r="CU13" s="61"/>
+      <c r="CV13" s="61"/>
+      <c r="CW13" s="61"/>
+      <c r="CX13" s="61"/>
+      <c r="CY13" s="61"/>
+      <c r="CZ13" s="61"/>
+      <c r="DA13" s="61"/>
+      <c r="DB13" s="61"/>
+      <c r="DC13" s="61"/>
+      <c r="DD13" s="61"/>
+      <c r="DE13" s="62"/>
     </row>
     <row r="14" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BG14" s="13" t="s">
+      <c r="BG14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-      <c r="BO14" s="13"/>
-      <c r="BP14" s="13"/>
-      <c r="BQ14" s="13"/>
-      <c r="BR14" s="13"/>
-      <c r="BS14" s="13"/>
-      <c r="BT14" s="13"/>
-      <c r="BU14" s="13"/>
-      <c r="BV14" s="13"/>
-      <c r="BW14" s="13"/>
-      <c r="BX14" s="13"/>
-      <c r="BY14" s="13"/>
-      <c r="BZ14" s="13"/>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="13"/>
-      <c r="CC14" s="13"/>
-      <c r="CD14" s="13"/>
-      <c r="CE14" s="13"/>
-      <c r="CF14" s="13"/>
-      <c r="CG14" s="13"/>
-      <c r="CH14" s="53" t="s">
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="10"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10"/>
+      <c r="BR14" s="10"/>
+      <c r="BS14" s="10"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="10"/>
+      <c r="BZ14" s="10"/>
+      <c r="CA14" s="10"/>
+      <c r="CB14" s="10"/>
+      <c r="CC14" s="10"/>
+      <c r="CD14" s="10"/>
+      <c r="CE14" s="10"/>
+      <c r="CF14" s="10"/>
+      <c r="CG14" s="10"/>
+      <c r="CH14" s="63" t="s">
         <v>17</v>
       </c>
       <c r="CI14" s="27"/>
@@ -2326,29 +2265,29 @@
       <c r="CN14" s="27"/>
       <c r="CO14" s="27"/>
       <c r="CP14" s="28"/>
-      <c r="CQ14" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="CR14" s="55"/>
-      <c r="CS14" s="55"/>
-      <c r="CT14" s="55"/>
-      <c r="CU14" s="55"/>
-      <c r="CV14" s="55"/>
-      <c r="CW14" s="55"/>
-      <c r="CX14" s="55"/>
-      <c r="CY14" s="55"/>
-      <c r="CZ14" s="55"/>
-      <c r="DA14" s="55"/>
-      <c r="DB14" s="55"/>
-      <c r="DC14" s="55"/>
-      <c r="DD14" s="55"/>
-      <c r="DE14" s="56"/>
+      <c r="CQ14" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="CR14" s="65"/>
+      <c r="CS14" s="65"/>
+      <c r="CT14" s="65"/>
+      <c r="CU14" s="65"/>
+      <c r="CV14" s="65"/>
+      <c r="CW14" s="65"/>
+      <c r="CX14" s="65"/>
+      <c r="CY14" s="65"/>
+      <c r="CZ14" s="65"/>
+      <c r="DA14" s="65"/>
+      <c r="DB14" s="65"/>
+      <c r="DC14" s="65"/>
+      <c r="DD14" s="65"/>
+      <c r="DE14" s="66"/>
       <c r="ZF14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="CH15" s="53" t="s">
+      <c r="CH15" s="63" t="s">
         <v>19</v>
       </c>
       <c r="CI15" s="27"/>
@@ -2359,102 +2298,96 @@
       <c r="CN15" s="27"/>
       <c r="CO15" s="27"/>
       <c r="CP15" s="28"/>
-      <c r="CQ15" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="CR15" s="58"/>
-      <c r="CS15" s="58"/>
-      <c r="CT15" s="58"/>
-      <c r="CU15" s="59"/>
-      <c r="CV15" s="60">
-        <v>10</v>
-      </c>
-      <c r="CW15" s="58"/>
-      <c r="CX15" s="58"/>
-      <c r="CY15" s="58"/>
-      <c r="CZ15" s="59"/>
-      <c r="DA15" s="60">
-        <v>19</v>
-      </c>
-      <c r="DB15" s="58"/>
-      <c r="DC15" s="58"/>
-      <c r="DD15" s="58"/>
-      <c r="DE15" s="61"/>
+      <c r="CQ15" s="67"/>
+      <c r="CR15" s="68"/>
+      <c r="CS15" s="68"/>
+      <c r="CT15" s="68"/>
+      <c r="CU15" s="69"/>
+      <c r="CV15" s="70"/>
+      <c r="CW15" s="68"/>
+      <c r="CX15" s="68"/>
+      <c r="CY15" s="68"/>
+      <c r="CZ15" s="69"/>
+      <c r="DA15" s="70"/>
+      <c r="DB15" s="68"/>
+      <c r="DC15" s="68"/>
+      <c r="DD15" s="68"/>
+      <c r="DE15" s="71"/>
     </row>
     <row r="16" spans="1:682" x14ac:dyDescent="0.2">
-      <c r="BZ16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA16" s="13"/>
-      <c r="CB16" s="13"/>
-      <c r="CC16" s="13"/>
-      <c r="CD16" s="13"/>
-      <c r="CE16" s="13"/>
-      <c r="CF16" s="13"/>
-      <c r="CG16" s="13"/>
-      <c r="CH16" s="13"/>
-      <c r="CI16" s="13"/>
-      <c r="CJ16" s="13"/>
-      <c r="CK16" s="13"/>
-      <c r="CL16" s="13"/>
-      <c r="CM16" s="13"/>
-      <c r="CN16" s="13"/>
-      <c r="CO16" s="13"/>
-      <c r="CP16" s="13"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="51"/>
-      <c r="CS16" s="51"/>
-      <c r="CT16" s="51"/>
-      <c r="CU16" s="51"/>
-      <c r="CV16" s="51"/>
-      <c r="CW16" s="51"/>
-      <c r="CX16" s="51"/>
-      <c r="CY16" s="51"/>
-      <c r="CZ16" s="51"/>
-      <c r="DA16" s="51"/>
-      <c r="DB16" s="51"/>
-      <c r="DC16" s="51"/>
-      <c r="DD16" s="51"/>
-      <c r="DE16" s="52"/>
+      <c r="BZ16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="10"/>
+      <c r="CC16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="10"/>
+      <c r="CF16" s="10"/>
+      <c r="CG16" s="10"/>
+      <c r="CH16" s="10"/>
+      <c r="CI16" s="10"/>
+      <c r="CJ16" s="10"/>
+      <c r="CK16" s="10"/>
+      <c r="CL16" s="10"/>
+      <c r="CM16" s="10"/>
+      <c r="CN16" s="10"/>
+      <c r="CO16" s="10"/>
+      <c r="CP16" s="10"/>
+      <c r="CQ16" s="45"/>
+      <c r="CR16" s="46"/>
+      <c r="CS16" s="46"/>
+      <c r="CT16" s="46"/>
+      <c r="CU16" s="46"/>
+      <c r="CV16" s="46"/>
+      <c r="CW16" s="46"/>
+      <c r="CX16" s="46"/>
+      <c r="CY16" s="46"/>
+      <c r="CZ16" s="46"/>
+      <c r="DA16" s="46"/>
+      <c r="DB16" s="46"/>
+      <c r="DC16" s="46"/>
+      <c r="DD16" s="46"/>
+      <c r="DE16" s="47"/>
     </row>
     <row customHeight="1" ht="8.1" r="17" spans="1:683" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="BB18" s="35" t="s">
+      <c r="BB18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+      <c r="BH18" s="39"/>
+      <c r="BI18" s="39"/>
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="39"/>
+      <c r="BM18" s="39"/>
+      <c r="BN18" s="39"/>
+      <c r="BO18" s="39"/>
+      <c r="BP18" s="40"/>
+      <c r="BQ18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="37"/>
-      <c r="BQ18" s="35" t="s">
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="39"/>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="40"/>
+      <c r="CJ18" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="37"/>
-      <c r="CJ18" s="20" t="s">
-        <v>24</v>
       </c>
       <c r="CK18" s="21"/>
       <c r="CL18" s="21"/>
@@ -2479,7 +2412,7 @@
       <c r="DE18" s="22"/>
     </row>
     <row r="19" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="BB19" s="40"/>
+      <c r="BB19" s="43"/>
       <c r="BC19" s="8"/>
       <c r="BD19" s="8"/>
       <c r="BE19" s="8"/>
@@ -2493,8 +2426,8 @@
       <c r="BM19" s="8"/>
       <c r="BN19" s="8"/>
       <c r="BO19" s="8"/>
-      <c r="BP19" s="41"/>
-      <c r="BQ19" s="40"/>
+      <c r="BP19" s="44"/>
+      <c r="BQ19" s="43"/>
       <c r="BR19" s="8"/>
       <c r="BS19" s="8"/>
       <c r="BT19" s="8"/>
@@ -2508,9 +2441,9 @@
       <c r="CB19" s="8"/>
       <c r="CC19" s="8"/>
       <c r="CD19" s="8"/>
-      <c r="CE19" s="41"/>
+      <c r="CE19" s="44"/>
       <c r="CJ19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="CK19" s="21"/>
       <c r="CL19" s="21"/>
@@ -2523,7 +2456,7 @@
       <c r="CS19" s="21"/>
       <c r="CT19" s="22"/>
       <c r="CU19" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CV19" s="21"/>
       <c r="CW19" s="21"/>
@@ -2537,273 +2470,265 @@
       <c r="DE19" s="22"/>
     </row>
     <row ht="12" r="20" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="AO20" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="43">
-        <v>1684</v>
-      </c>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-      <c r="BM20" s="44"/>
-      <c r="BN20" s="44"/>
-      <c r="BO20" s="44"/>
-      <c r="BP20" s="45"/>
-      <c r="BQ20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR20" s="46"/>
-      <c r="BS20" s="46"/>
-      <c r="BT20" s="46"/>
-      <c r="BU20" s="46"/>
-      <c r="BV20" s="46"/>
-      <c r="BW20" s="46"/>
-      <c r="BX20" s="46"/>
-      <c r="BY20" s="46"/>
-      <c r="BZ20" s="46"/>
-      <c r="CA20" s="46"/>
-      <c r="CB20" s="46"/>
-      <c r="CC20" s="46"/>
-      <c r="CD20" s="46"/>
-      <c r="CE20" s="47"/>
+      <c r="AO20" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="49"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="50"/>
+      <c r="BG20" s="50"/>
+      <c r="BH20" s="50"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="50"/>
+      <c r="BK20" s="50"/>
+      <c r="BL20" s="50"/>
+      <c r="BM20" s="50"/>
+      <c r="BN20" s="50"/>
+      <c r="BO20" s="50"/>
+      <c r="BP20" s="51"/>
+      <c r="BQ20" s="52"/>
+      <c r="BR20" s="52"/>
+      <c r="BS20" s="52"/>
+      <c r="BT20" s="52"/>
+      <c r="BU20" s="52"/>
+      <c r="BV20" s="52"/>
+      <c r="BW20" s="52"/>
+      <c r="BX20" s="52"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="52"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="53"/>
       <c r="CF20" s="2"/>
       <c r="CG20" s="2"/>
       <c r="CH20" s="2"/>
       <c r="CI20" s="2"/>
-      <c r="CJ20" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="CK20" s="46"/>
-      <c r="CL20" s="46"/>
-      <c r="CM20" s="46"/>
-      <c r="CN20" s="46"/>
-      <c r="CO20" s="46"/>
-      <c r="CP20" s="46"/>
-      <c r="CQ20" s="46"/>
-      <c r="CR20" s="46"/>
-      <c r="CS20" s="46"/>
-      <c r="CT20" s="49"/>
-      <c r="CU20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="CV20" s="46"/>
-      <c r="CW20" s="46"/>
-      <c r="CX20" s="46"/>
-      <c r="CY20" s="46"/>
-      <c r="CZ20" s="46"/>
-      <c r="DA20" s="46"/>
-      <c r="DB20" s="46"/>
-      <c r="DC20" s="46"/>
-      <c r="DD20" s="46"/>
-      <c r="DE20" s="47"/>
+      <c r="CJ20" s="54"/>
+      <c r="CK20" s="52"/>
+      <c r="CL20" s="52"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="52"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="55"/>
+      <c r="CU20" s="52"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
+      <c r="DA20" s="52"/>
+      <c r="DB20" s="52"/>
+      <c r="DC20" s="52"/>
+      <c r="DD20" s="52"/>
+      <c r="DE20" s="53"/>
     </row>
     <row ht="12" r="21" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="34"/>
-      <c r="BX21" s="34"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="34"/>
-      <c r="CA21" s="34"/>
-      <c r="CB21" s="34"/>
-      <c r="CC21" s="34"/>
-      <c r="CD21" s="34"/>
-      <c r="CE21" s="34"/>
-      <c r="CF21" s="34"/>
-      <c r="CG21" s="34"/>
-      <c r="CH21" s="34"/>
-      <c r="CI21" s="34"/>
-      <c r="CJ21" s="34"/>
-      <c r="CK21" s="34"/>
-      <c r="CL21" s="34"/>
-      <c r="CM21" s="34"/>
-      <c r="CN21" s="34"/>
-      <c r="CO21" s="34"/>
-      <c r="CP21" s="34"/>
-      <c r="CQ21" s="34"/>
-      <c r="CR21" s="34"/>
-      <c r="CS21" s="34"/>
-      <c r="CT21" s="34"/>
-      <c r="CU21" s="34"/>
-      <c r="CV21" s="34"/>
-      <c r="CW21" s="34"/>
-      <c r="CX21" s="34"/>
-      <c r="CY21" s="34"/>
-      <c r="CZ21" s="34"/>
-      <c r="DA21" s="34"/>
-      <c r="DB21" s="34"/>
-      <c r="DC21" s="34"/>
-      <c r="DD21" s="34"/>
-      <c r="DE21" s="34"/>
+      <c r="A21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="37"/>
+      <c r="AR21" s="37"/>
+      <c r="AS21" s="37"/>
+      <c r="AT21" s="37"/>
+      <c r="AU21" s="37"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="37"/>
+      <c r="AX21" s="37"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="37"/>
+      <c r="BE21" s="37"/>
+      <c r="BF21" s="37"/>
+      <c r="BG21" s="37"/>
+      <c r="BH21" s="37"/>
+      <c r="BI21" s="37"/>
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="37"/>
+      <c r="BL21" s="37"/>
+      <c r="BM21" s="37"/>
+      <c r="BN21" s="37"/>
+      <c r="BO21" s="37"/>
+      <c r="BP21" s="37"/>
+      <c r="BQ21" s="37"/>
+      <c r="BR21" s="37"/>
+      <c r="BS21" s="37"/>
+      <c r="BT21" s="37"/>
+      <c r="BU21" s="37"/>
+      <c r="BV21" s="37"/>
+      <c r="BW21" s="37"/>
+      <c r="BX21" s="37"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="37"/>
+      <c r="CA21" s="37"/>
+      <c r="CB21" s="37"/>
+      <c r="CC21" s="37"/>
+      <c r="CD21" s="37"/>
+      <c r="CE21" s="37"/>
+      <c r="CF21" s="37"/>
+      <c r="CG21" s="37"/>
+      <c r="CH21" s="37"/>
+      <c r="CI21" s="37"/>
+      <c r="CJ21" s="37"/>
+      <c r="CK21" s="37"/>
+      <c r="CL21" s="37"/>
+      <c r="CM21" s="37"/>
+      <c r="CN21" s="37"/>
+      <c r="CO21" s="37"/>
+      <c r="CP21" s="37"/>
+      <c r="CQ21" s="37"/>
+      <c r="CR21" s="37"/>
+      <c r="CS21" s="37"/>
+      <c r="CT21" s="37"/>
+      <c r="CU21" s="37"/>
+      <c r="CV21" s="37"/>
+      <c r="CW21" s="37"/>
+      <c r="CX21" s="37"/>
+      <c r="CY21" s="37"/>
+      <c r="CZ21" s="37"/>
+      <c r="DA21" s="37"/>
+      <c r="DB21" s="37"/>
+      <c r="DC21" s="37"/>
+      <c r="DD21" s="37"/>
+      <c r="DE21" s="37"/>
     </row>
     <row customHeight="1" ht="3.9" r="22" spans="1:683" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="A23" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="37"/>
-      <c r="BE23" s="35" t="s">
+      <c r="A23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="39"/>
+      <c r="AN23" s="39"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="39"/>
+      <c r="AT23" s="39"/>
+      <c r="AU23" s="39"/>
+      <c r="AV23" s="39"/>
+      <c r="AW23" s="39"/>
+      <c r="AX23" s="39"/>
+      <c r="AY23" s="39"/>
+      <c r="AZ23" s="39"/>
+      <c r="BA23" s="39"/>
+      <c r="BB23" s="39"/>
+      <c r="BC23" s="39"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="BF23" s="36"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="36"/>
-      <c r="BJ23" s="36"/>
-      <c r="BK23" s="36"/>
-      <c r="BL23" s="37"/>
+      <c r="BF23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="39"/>
+      <c r="BI23" s="39"/>
+      <c r="BJ23" s="39"/>
+      <c r="BK23" s="39"/>
+      <c r="BL23" s="40"/>
       <c r="BM23" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BN23" s="21"/>
       <c r="BO23" s="21"/>
@@ -2851,13 +2776,13 @@
       <c r="DE23" s="22"/>
     </row>
     <row r="24" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2906,75 +2831,75 @@
       <c r="BA24" s="5"/>
       <c r="BB24" s="5"/>
       <c r="BC24" s="5"/>
-      <c r="BD24" s="39"/>
-      <c r="BE24" s="38"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="41"/>
       <c r="BF24" s="5"/>
       <c r="BG24" s="5"/>
       <c r="BH24" s="5"/>
       <c r="BI24" s="5"/>
       <c r="BJ24" s="5"/>
       <c r="BK24" s="5"/>
-      <c r="BL24" s="39"/>
-      <c r="BM24" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="BR24" s="36"/>
-      <c r="BS24" s="36"/>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="36"/>
-      <c r="BV24" s="36"/>
-      <c r="BW24" s="36"/>
-      <c r="BX24" s="36"/>
-      <c r="BY24" s="36"/>
-      <c r="BZ24" s="36"/>
-      <c r="CA24" s="37"/>
-      <c r="CB24" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="CC24" s="36"/>
-      <c r="CD24" s="36"/>
-      <c r="CE24" s="36"/>
-      <c r="CF24" s="36"/>
-      <c r="CG24" s="36"/>
-      <c r="CH24" s="36"/>
-      <c r="CI24" s="36"/>
-      <c r="CJ24" s="36"/>
-      <c r="CK24" s="36"/>
-      <c r="CL24" s="36"/>
-      <c r="CM24" s="36"/>
-      <c r="CN24" s="36"/>
-      <c r="CO24" s="36"/>
-      <c r="CP24" s="37"/>
-      <c r="CQ24" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR24" s="36"/>
-      <c r="CS24" s="36"/>
-      <c r="CT24" s="36"/>
-      <c r="CU24" s="36"/>
-      <c r="CV24" s="36"/>
-      <c r="CW24" s="36"/>
-      <c r="CX24" s="36"/>
-      <c r="CY24" s="36"/>
-      <c r="CZ24" s="36"/>
-      <c r="DA24" s="36"/>
-      <c r="DB24" s="36"/>
-      <c r="DC24" s="36"/>
-      <c r="DD24" s="36"/>
-      <c r="DE24" s="37"/>
+      <c r="BL24" s="42"/>
+      <c r="BM24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN24" s="39"/>
+      <c r="BO24" s="39"/>
+      <c r="BP24" s="39"/>
+      <c r="BQ24" s="39"/>
+      <c r="BR24" s="39"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="39"/>
+      <c r="BU24" s="39"/>
+      <c r="BV24" s="39"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="39"/>
+      <c r="BY24" s="39"/>
+      <c r="BZ24" s="39"/>
+      <c r="CA24" s="40"/>
+      <c r="CB24" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="CC24" s="39"/>
+      <c r="CD24" s="39"/>
+      <c r="CE24" s="39"/>
+      <c r="CF24" s="39"/>
+      <c r="CG24" s="39"/>
+      <c r="CH24" s="39"/>
+      <c r="CI24" s="39"/>
+      <c r="CJ24" s="39"/>
+      <c r="CK24" s="39"/>
+      <c r="CL24" s="39"/>
+      <c r="CM24" s="39"/>
+      <c r="CN24" s="39"/>
+      <c r="CO24" s="39"/>
+      <c r="CP24" s="40"/>
+      <c r="CQ24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="CR24" s="39"/>
+      <c r="CS24" s="39"/>
+      <c r="CT24" s="39"/>
+      <c r="CU24" s="39"/>
+      <c r="CV24" s="39"/>
+      <c r="CW24" s="39"/>
+      <c r="CX24" s="39"/>
+      <c r="CY24" s="39"/>
+      <c r="CZ24" s="39"/>
+      <c r="DA24" s="39"/>
+      <c r="DB24" s="39"/>
+      <c r="DC24" s="39"/>
+      <c r="DD24" s="39"/>
+      <c r="DE24" s="40"/>
     </row>
     <row r="25" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -3023,16 +2948,16 @@
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
       <c r="BC25" s="5"/>
-      <c r="BD25" s="39"/>
-      <c r="BE25" s="38"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="41"/>
       <c r="BF25" s="5"/>
       <c r="BG25" s="5"/>
       <c r="BH25" s="5"/>
       <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
-      <c r="BL25" s="39"/>
-      <c r="BM25" s="38"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="41"/>
       <c r="BN25" s="5"/>
       <c r="BO25" s="5"/>
       <c r="BP25" s="5"/>
@@ -3046,8 +2971,8 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
-      <c r="CA25" s="39"/>
-      <c r="CB25" s="38"/>
+      <c r="CA25" s="42"/>
+      <c r="CB25" s="41"/>
       <c r="CC25" s="5"/>
       <c r="CD25" s="5"/>
       <c r="CE25" s="5"/>
@@ -3061,8 +2986,8 @@
       <c r="CM25" s="5"/>
       <c r="CN25" s="5"/>
       <c r="CO25" s="5"/>
-      <c r="CP25" s="39"/>
-      <c r="CQ25" s="38"/>
+      <c r="CP25" s="42"/>
+      <c r="CQ25" s="41"/>
       <c r="CR25" s="5"/>
       <c r="CS25" s="5"/>
       <c r="CT25" s="5"/>
@@ -3076,16 +3001,16 @@
       <c r="DB25" s="5"/>
       <c r="DC25" s="5"/>
       <c r="DD25" s="5"/>
-      <c r="DE25" s="39"/>
+      <c r="DE25" s="42"/>
     </row>
     <row r="26" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -3134,16 +3059,16 @@
       <c r="BA26" s="8"/>
       <c r="BB26" s="8"/>
       <c r="BC26" s="8"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="40"/>
+      <c r="BD26" s="44"/>
+      <c r="BE26" s="43"/>
       <c r="BF26" s="8"/>
       <c r="BG26" s="8"/>
       <c r="BH26" s="8"/>
       <c r="BI26" s="8"/>
       <c r="BJ26" s="8"/>
       <c r="BK26" s="8"/>
-      <c r="BL26" s="41"/>
-      <c r="BM26" s="40"/>
+      <c r="BL26" s="44"/>
+      <c r="BM26" s="43"/>
       <c r="BN26" s="8"/>
       <c r="BO26" s="8"/>
       <c r="BP26" s="8"/>
@@ -3157,8 +3082,8 @@
       <c r="BX26" s="8"/>
       <c r="BY26" s="8"/>
       <c r="BZ26" s="8"/>
-      <c r="CA26" s="41"/>
-      <c r="CB26" s="40"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="43"/>
       <c r="CC26" s="8"/>
       <c r="CD26" s="8"/>
       <c r="CE26" s="8"/>
@@ -3172,8 +3097,8 @@
       <c r="CM26" s="8"/>
       <c r="CN26" s="8"/>
       <c r="CO26" s="8"/>
-      <c r="CP26" s="41"/>
-      <c r="CQ26" s="40"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="43"/>
       <c r="CR26" s="8"/>
       <c r="CS26" s="8"/>
       <c r="CT26" s="8"/>
@@ -3187,7 +3112,7 @@
       <c r="DB26" s="8"/>
       <c r="DC26" s="8"/>
       <c r="DD26" s="8"/>
-      <c r="DE26" s="41"/>
+      <c r="DE26" s="44"/>
     </row>
     <row r="27" spans="1:683" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
@@ -3320,7 +3245,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
       <c r="G28" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -3371,16 +3296,16 @@
       <c r="BB28" s="24"/>
       <c r="BC28" s="24"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="18"/>
-      <c r="BG28" s="18"/>
-      <c r="BH28" s="18"/>
-      <c r="BI28" s="18"/>
-      <c r="BJ28" s="18"/>
-      <c r="BK28" s="18"/>
-      <c r="BL28" s="19"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="35"/>
+      <c r="BG28" s="35"/>
+      <c r="BH28" s="35"/>
+      <c r="BI28" s="35"/>
+      <c r="BJ28" s="35"/>
+      <c r="BK28" s="35"/>
+      <c r="BL28" s="36"/>
       <c r="BM28" s="29">
-        <v>4784.4</v>
+        <v>10.368</v>
       </c>
       <c r="BN28" s="27"/>
       <c r="BO28" s="27"/>
@@ -3397,7 +3322,7 @@
       <c r="BZ28" s="27"/>
       <c r="CA28" s="28"/>
       <c r="CB28" s="29">
-        <v>4784.4</v>
+        <v>10.368</v>
       </c>
       <c r="CC28" s="27"/>
       <c r="CD28" s="27"/>
@@ -3414,7 +3339,7 @@
       <c r="CO28" s="27"/>
       <c r="CP28" s="28"/>
       <c r="CQ28" s="29">
-        <v>4784.4</v>
+        <v>10.368</v>
       </c>
       <c r="CR28" s="27"/>
       <c r="CS28" s="27"/>
@@ -3439,7 +3364,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
       <c r="G29" s="33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -3554,7 +3479,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -3614,7 +3539,7 @@
       <c r="BK30" s="27"/>
       <c r="BL30" s="28"/>
       <c r="BM30" s="29">
-        <v>4430</v>
+        <v>4</v>
       </c>
       <c r="BN30" s="27"/>
       <c r="BO30" s="27"/>
@@ -3631,7 +3556,7 @@
       <c r="BZ30" s="27"/>
       <c r="CA30" s="28"/>
       <c r="CB30" s="29">
-        <v>4430</v>
+        <v>4</v>
       </c>
       <c r="CC30" s="27"/>
       <c r="CD30" s="27"/>
@@ -3648,7 +3573,7 @@
       <c r="CO30" s="27"/>
       <c r="CP30" s="28"/>
       <c r="CQ30" s="29">
-        <v>4430</v>
+        <v>4</v>
       </c>
       <c r="CR30" s="27"/>
       <c r="CS30" s="27"/>
@@ -3667,7 +3592,7 @@
     </row>
     <row ht="30.6" r="31" spans="1:683" x14ac:dyDescent="0.2">
       <c r="A31" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3675,7 +3600,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -3735,7 +3660,7 @@
       <c r="BK31" s="27"/>
       <c r="BL31" s="28"/>
       <c r="BM31" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN31" s="27"/>
       <c r="BO31" s="27"/>
@@ -3752,7 +3677,7 @@
       <c r="BZ31" s="27"/>
       <c r="CA31" s="28"/>
       <c r="CB31" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC31" s="27"/>
       <c r="CD31" s="27"/>
@@ -3769,7 +3694,7 @@
       <c r="CO31" s="27"/>
       <c r="CP31" s="28"/>
       <c r="CQ31" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR31" s="27"/>
       <c r="CS31" s="27"/>
@@ -3786,161 +3711,163 @@
       <c r="DD31" s="27"/>
       <c r="DE31" s="28"/>
       <c r="ZE31" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="ZG31" s="1"/>
     </row>
     <row r="32" spans="1:683" x14ac:dyDescent="0.2">
-      <c r="BM32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN32" s="13"/>
-      <c r="BO32" s="13"/>
-      <c r="BP32" s="13"/>
-      <c r="BQ32" s="13"/>
-      <c r="BR32" s="13"/>
-      <c r="BS32" s="13"/>
-      <c r="BT32" s="13"/>
-      <c r="BU32" s="13"/>
-      <c r="BV32" s="13"/>
-      <c r="BW32" s="13"/>
-      <c r="BX32" s="13"/>
-      <c r="BY32" s="13"/>
-      <c r="BZ32" s="13"/>
-      <c r="CA32" s="13"/>
-      <c r="CB32" s="13"/>
-      <c r="CC32" s="13"/>
-      <c r="CD32" s="13"/>
-      <c r="CE32" s="13"/>
-      <c r="CF32" s="13"/>
-      <c r="CG32" s="13"/>
-      <c r="CH32" s="13"/>
-      <c r="CI32" s="13"/>
-      <c r="CJ32" s="13"/>
-      <c r="CK32" s="13"/>
-      <c r="CL32" s="13"/>
-      <c r="CM32" s="13"/>
-      <c r="CN32" s="13"/>
-      <c r="CO32" s="13"/>
-      <c r="CP32" s="13"/>
-      <c r="CQ32" s="14">
-        <v>4784.4</v>
-      </c>
-      <c r="CR32" s="15"/>
-      <c r="CS32" s="15"/>
-      <c r="CT32" s="15"/>
-      <c r="CU32" s="15"/>
-      <c r="CV32" s="15"/>
-      <c r="CW32" s="15"/>
-      <c r="CX32" s="15"/>
-      <c r="CY32" s="15"/>
-      <c r="CZ32" s="15"/>
-      <c r="DA32" s="15"/>
-      <c r="DB32" s="15"/>
-      <c r="DC32" s="15"/>
-      <c r="DD32" s="15"/>
-      <c r="DE32" s="16"/>
+      <c r="BM32" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
+      <c r="BS32" s="10"/>
+      <c r="BT32" s="10"/>
+      <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
+      <c r="BY32" s="10"/>
+      <c r="BZ32" s="10"/>
+      <c r="CA32" s="10"/>
+      <c r="CB32" s="10"/>
+      <c r="CC32" s="10"/>
+      <c r="CD32" s="10"/>
+      <c r="CE32" s="10"/>
+      <c r="CF32" s="10"/>
+      <c r="CG32" s="10"/>
+      <c r="CH32" s="10"/>
+      <c r="CI32" s="10"/>
+      <c r="CJ32" s="10"/>
+      <c r="CK32" s="10"/>
+      <c r="CL32" s="10"/>
+      <c r="CM32" s="10"/>
+      <c r="CN32" s="10"/>
+      <c r="CO32" s="10"/>
+      <c r="CP32" s="10"/>
+      <c r="CQ32" s="11">
+        <v>10.368</v>
+      </c>
+      <c r="CR32" s="12"/>
+      <c r="CS32" s="12"/>
+      <c r="CT32" s="12"/>
+      <c r="CU32" s="12"/>
+      <c r="CV32" s="12"/>
+      <c r="CW32" s="12"/>
+      <c r="CX32" s="12"/>
+      <c r="CY32" s="12"/>
+      <c r="CZ32" s="12"/>
+      <c r="DA32" s="12"/>
+      <c r="DB32" s="12"/>
+      <c r="DC32" s="12"/>
+      <c r="DD32" s="12"/>
+      <c r="DE32" s="13"/>
     </row>
     <row r="33" spans="1:685" x14ac:dyDescent="0.2">
-      <c r="BM33" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN33" s="13"/>
-      <c r="BO33" s="13"/>
-      <c r="BP33" s="13"/>
-      <c r="BQ33" s="13"/>
-      <c r="BR33" s="13"/>
-      <c r="BS33" s="13"/>
-      <c r="BT33" s="13"/>
-      <c r="BU33" s="13"/>
-      <c r="BV33" s="13"/>
-      <c r="BW33" s="13"/>
-      <c r="BX33" s="13"/>
-      <c r="BY33" s="13"/>
-      <c r="BZ33" s="13"/>
-      <c r="CA33" s="13"/>
-      <c r="CB33" s="13"/>
-      <c r="CC33" s="13"/>
-      <c r="CD33" s="13"/>
-      <c r="CE33" s="13"/>
-      <c r="CF33" s="13"/>
-      <c r="CG33" s="13"/>
-      <c r="CH33" s="13"/>
-      <c r="CI33" s="13"/>
-      <c r="CJ33" s="13"/>
-      <c r="CK33" s="13"/>
-      <c r="CL33" s="13"/>
-      <c r="CM33" s="13"/>
-      <c r="CN33" s="13"/>
-      <c r="CO33" s="13"/>
-      <c r="CP33" s="13"/>
-      <c r="CQ33" s="14"/>
-      <c r="CR33" s="15"/>
-      <c r="CS33" s="15"/>
-      <c r="CT33" s="15"/>
-      <c r="CU33" s="15"/>
-      <c r="CV33" s="15"/>
-      <c r="CW33" s="15"/>
-      <c r="CX33" s="15"/>
-      <c r="CY33" s="15"/>
-      <c r="CZ33" s="15"/>
-      <c r="DA33" s="15"/>
-      <c r="DB33" s="15"/>
-      <c r="DC33" s="15"/>
-      <c r="DD33" s="15"/>
-      <c r="DE33" s="16"/>
-      <c r="DF33" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="BM33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN33" s="10"/>
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
+      <c r="BS33" s="10"/>
+      <c r="BT33" s="10"/>
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
+      <c r="BY33" s="10"/>
+      <c r="BZ33" s="10"/>
+      <c r="CA33" s="10"/>
+      <c r="CB33" s="10"/>
+      <c r="CC33" s="10"/>
+      <c r="CD33" s="10"/>
+      <c r="CE33" s="10"/>
+      <c r="CF33" s="10"/>
+      <c r="CG33" s="10"/>
+      <c r="CH33" s="10"/>
+      <c r="CI33" s="10"/>
+      <c r="CJ33" s="10"/>
+      <c r="CK33" s="10"/>
+      <c r="CL33" s="10"/>
+      <c r="CM33" s="10"/>
+      <c r="CN33" s="10"/>
+      <c r="CO33" s="10"/>
+      <c r="CP33" s="10"/>
+      <c r="CQ33" s="11">
+        <v>1.7280000000000002</v>
+      </c>
+      <c r="CR33" s="12"/>
+      <c r="CS33" s="12"/>
+      <c r="CT33" s="12"/>
+      <c r="CU33" s="12"/>
+      <c r="CV33" s="12"/>
+      <c r="CW33" s="12"/>
+      <c r="CX33" s="12"/>
+      <c r="CY33" s="12"/>
+      <c r="CZ33" s="12"/>
+      <c r="DA33" s="12"/>
+      <c r="DB33" s="12"/>
+      <c r="DC33" s="12"/>
+      <c r="DD33" s="12"/>
+      <c r="DE33" s="13"/>
+      <c r="DF33" s="3"/>
     </row>
     <row r="34" spans="1:685" x14ac:dyDescent="0.2">
-      <c r="BM34" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN34" s="13"/>
-      <c r="BO34" s="13"/>
-      <c r="BP34" s="13"/>
-      <c r="BQ34" s="13"/>
-      <c r="BR34" s="13"/>
-      <c r="BS34" s="13"/>
-      <c r="BT34" s="13"/>
-      <c r="BU34" s="13"/>
-      <c r="BV34" s="13"/>
-      <c r="BW34" s="13"/>
-      <c r="BX34" s="13"/>
-      <c r="BY34" s="13"/>
-      <c r="BZ34" s="13"/>
-      <c r="CA34" s="13"/>
-      <c r="CB34" s="13"/>
-      <c r="CC34" s="13"/>
-      <c r="CD34" s="13"/>
-      <c r="CE34" s="13"/>
-      <c r="CF34" s="13"/>
-      <c r="CG34" s="13"/>
-      <c r="CH34" s="13"/>
-      <c r="CI34" s="13"/>
-      <c r="CJ34" s="13"/>
-      <c r="CK34" s="13"/>
-      <c r="CL34" s="13"/>
-      <c r="CM34" s="13"/>
-      <c r="CN34" s="13"/>
-      <c r="CO34" s="13"/>
-      <c r="CP34" s="13"/>
-      <c r="CQ34" s="14"/>
-      <c r="CR34" s="15"/>
-      <c r="CS34" s="15"/>
-      <c r="CT34" s="15"/>
-      <c r="CU34" s="15"/>
-      <c r="CV34" s="15"/>
-      <c r="CW34" s="15"/>
-      <c r="CX34" s="15"/>
-      <c r="CY34" s="15"/>
-      <c r="CZ34" s="15"/>
-      <c r="DA34" s="15"/>
-      <c r="DB34" s="15"/>
-      <c r="DC34" s="15"/>
-      <c r="DD34" s="15"/>
-      <c r="DE34" s="16"/>
+      <c r="BM34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
+      <c r="BS34" s="10"/>
+      <c r="BT34" s="10"/>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
+      <c r="BY34" s="10"/>
+      <c r="BZ34" s="10"/>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10"/>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+      <c r="CH34" s="10"/>
+      <c r="CI34" s="10"/>
+      <c r="CJ34" s="10"/>
+      <c r="CK34" s="10"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="10"/>
+      <c r="CN34" s="10"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="11">
+        <v>10.368</v>
+      </c>
+      <c r="CR34" s="12"/>
+      <c r="CS34" s="12"/>
+      <c r="CT34" s="12"/>
+      <c r="CU34" s="12"/>
+      <c r="CV34" s="12"/>
+      <c r="CW34" s="12"/>
+      <c r="CX34" s="12"/>
+      <c r="CY34" s="12"/>
+      <c r="CZ34" s="12"/>
+      <c r="DA34" s="12"/>
+      <c r="DB34" s="12"/>
+      <c r="DC34" s="12"/>
+      <c r="DD34" s="12"/>
+      <c r="DE34" s="13"/>
     </row>
     <row customHeight="1" ht="8.1" r="35" spans="1:685" x14ac:dyDescent="0.2"/>
     <row ht="20.399999999999999" r="36" spans="1:685" x14ac:dyDescent="0.2">
@@ -3971,104 +3898,104 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
-      <c r="Z36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="11"/>
-      <c r="AS36" s="11"/>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
+      <c r="Z36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="12"/>
-      <c r="BC36" s="12"/>
-      <c r="BD36" s="12"/>
-      <c r="BE36" s="12"/>
-      <c r="BF36" s="12"/>
-      <c r="BG36" s="12"/>
-      <c r="BH36" s="12"/>
-      <c r="BI36" s="12"/>
-      <c r="BJ36" s="12"/>
-      <c r="BK36" s="12"/>
-      <c r="BL36" s="12"/>
-      <c r="BM36" s="12"/>
-      <c r="BN36" s="12"/>
-      <c r="BO36" s="12"/>
-      <c r="BP36" s="12"/>
-      <c r="BQ36" s="12"/>
-      <c r="BR36" s="12"/>
-      <c r="BS36" s="12"/>
-      <c r="BT36" s="12"/>
-      <c r="BU36" s="12"/>
-      <c r="BV36" s="12"/>
+      <c r="BB36" s="16"/>
+      <c r="BC36" s="16"/>
+      <c r="BD36" s="16"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="16"/>
+      <c r="BG36" s="16"/>
+      <c r="BH36" s="16"/>
+      <c r="BI36" s="16"/>
+      <c r="BJ36" s="16"/>
+      <c r="BK36" s="16"/>
+      <c r="BL36" s="16"/>
+      <c r="BM36" s="16"/>
+      <c r="BN36" s="16"/>
+      <c r="BO36" s="16"/>
+      <c r="BP36" s="16"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="16"/>
+      <c r="BS36" s="16"/>
+      <c r="BT36" s="16"/>
+      <c r="BU36" s="16"/>
+      <c r="BV36" s="16"/>
       <c r="BW36" s="2"/>
-      <c r="BX36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BY36" s="11"/>
-      <c r="BZ36" s="11"/>
-      <c r="CA36" s="11"/>
-      <c r="CB36" s="11"/>
-      <c r="CC36" s="11"/>
-      <c r="CD36" s="11"/>
-      <c r="CE36" s="11"/>
-      <c r="CF36" s="11"/>
-      <c r="CG36" s="11"/>
-      <c r="CH36" s="11"/>
-      <c r="CI36" s="11"/>
-      <c r="CJ36" s="11"/>
-      <c r="CK36" s="11"/>
-      <c r="CL36" s="11"/>
-      <c r="CM36" s="11"/>
-      <c r="CN36" s="11"/>
-      <c r="CO36" s="11"/>
-      <c r="CP36" s="11"/>
-      <c r="CQ36" s="11"/>
-      <c r="CR36" s="11"/>
-      <c r="CS36" s="11"/>
-      <c r="CT36" s="11"/>
-      <c r="CU36" s="11"/>
-      <c r="CV36" s="11"/>
-      <c r="CW36" s="11"/>
-      <c r="CX36" s="11"/>
-      <c r="CY36" s="11"/>
-      <c r="CZ36" s="11"/>
-      <c r="DA36" s="11"/>
-      <c r="DB36" s="11"/>
-      <c r="DC36" s="11"/>
-      <c r="DD36" s="11"/>
-      <c r="DE36" s="11"/>
+      <c r="BX36" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="15"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="15"/>
+      <c r="CG36" s="15"/>
+      <c r="CH36" s="15"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="15"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="15"/>
+      <c r="CM36" s="15"/>
+      <c r="CN36" s="15"/>
+      <c r="CO36" s="15"/>
+      <c r="CP36" s="15"/>
+      <c r="CQ36" s="15"/>
+      <c r="CR36" s="15"/>
+      <c r="CS36" s="15"/>
+      <c r="CT36" s="15"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="15"/>
+      <c r="CW36" s="15"/>
+      <c r="CX36" s="15"/>
+      <c r="CY36" s="15"/>
+      <c r="CZ36" s="15"/>
+      <c r="DA36" s="15"/>
+      <c r="DB36" s="15"/>
+      <c r="DC36" s="15"/>
+      <c r="DD36" s="15"/>
+      <c r="DE36" s="15"/>
       <c r="ZH36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="ZI36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="6.9" r="37" spans="1:685" x14ac:dyDescent="0.2">
       <c r="Z37" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
@@ -4097,7 +4024,7 @@
       <c r="AY37" s="4"/>
       <c r="AZ37" s="4"/>
       <c r="BB37" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BC37" s="4"/>
       <c r="BD37" s="4"/>
@@ -4120,7 +4047,7 @@
       <c r="BU37" s="4"/>
       <c r="BV37" s="4"/>
       <c r="BX37" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BY37" s="4"/>
       <c r="BZ37" s="4"/>
@@ -4158,7 +4085,7 @@
     </row>
     <row r="38" spans="1:685" x14ac:dyDescent="0.2">
       <c r="J38" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -4197,7 +4124,7 @@
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
@@ -4247,7 +4174,7 @@
       <c r="BU40" s="9"/>
       <c r="BV40" s="9"/>
       <c r="BX40" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BY40" s="8"/>
       <c r="BZ40" s="8"/>
@@ -4283,15 +4210,15 @@
       <c r="DD40" s="8"/>
       <c r="DE40" s="8"/>
       <c r="ZH40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="ZI40" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="6.9" r="41" spans="1:685" x14ac:dyDescent="0.2">
       <c r="Z41" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
@@ -4320,7 +4247,7 @@
       <c r="AY41" s="4"/>
       <c r="AZ41" s="4"/>
       <c r="BB41" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
@@ -4343,7 +4270,7 @@
       <c r="BU41" s="4"/>
       <c r="BV41" s="4"/>
       <c r="BX41" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BY41" s="4"/>
       <c r="BZ41" s="4"/>
@@ -4381,7 +4308,7 @@
     </row>
     <row r="42" spans="1:685" x14ac:dyDescent="0.2">
       <c r="J42" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -4393,8 +4320,19 @@
   </sheetData>
   <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" sort="0"/>
   <mergeCells count="104">
-    <mergeCell ref="CB30:CP30"/>
-    <mergeCell ref="CQ30:DE30"/>
+    <mergeCell ref="Z10:CG10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:CP11"/>
+    <mergeCell ref="CQ10:DE11"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="X7:CG7"/>
+    <mergeCell ref="CH7:CP7"/>
+    <mergeCell ref="CQ6:DE7"/>
+    <mergeCell ref="X8:CG8"/>
+    <mergeCell ref="A9:Y9"/>
+    <mergeCell ref="Z9:CG9"/>
+    <mergeCell ref="CH9:CP9"/>
+    <mergeCell ref="CQ8:DE9"/>
     <mergeCell ref="BE1:DE2"/>
     <mergeCell ref="CQ3:DE3"/>
     <mergeCell ref="BZ4:CP4"/>
@@ -4404,19 +4342,6 @@
     <mergeCell ref="CH5:CP5"/>
     <mergeCell ref="CQ5:DE5"/>
     <mergeCell ref="K6:CG6"/>
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="X7:CG7"/>
-    <mergeCell ref="CH7:CP7"/>
-    <mergeCell ref="CQ6:DE7"/>
-    <mergeCell ref="X8:CG8"/>
-    <mergeCell ref="A9:Y9"/>
-    <mergeCell ref="Z9:CG9"/>
-    <mergeCell ref="CH9:CP9"/>
-    <mergeCell ref="CQ8:DE9"/>
-    <mergeCell ref="Z10:CG10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:CP11"/>
-    <mergeCell ref="CQ10:DE11"/>
     <mergeCell ref="J12:BC12"/>
     <mergeCell ref="BH12:CP13"/>
     <mergeCell ref="CQ12:DE13"/>
@@ -4475,6 +4400,8 @@
     <mergeCell ref="G30:BD30"/>
     <mergeCell ref="BE30:BL30"/>
     <mergeCell ref="BM30:CA30"/>
+    <mergeCell ref="CB30:CP30"/>
+    <mergeCell ref="CQ30:DE30"/>
     <mergeCell ref="BM32:CP32"/>
     <mergeCell ref="CQ32:DE32"/>
     <mergeCell ref="BM33:CP33"/>
@@ -4501,6 +4428,5 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.75" right="0.75" top="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>